--- a/public/ITNOW/ITNOW_History.xlsx
+++ b/public/ITNOW/ITNOW_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/MATLAB/IT-NOWCAST/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A8DE9-5BD5-AF44-BCC4-6BFEDD60EA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20C49BC-0E04-1F40-9100-92E8B8126C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" activeTab="1" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="10100" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Nowcast</t>
   </si>
@@ -54,28 +54,22 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>IT-NOW</t>
   </si>
   <si>
-    <t>Date of the real-time prediction</t>
-  </si>
-  <si>
     <t xml:space="preserve">Update: </t>
   </si>
   <si>
     <t>Realization of GDP growth, quarterly</t>
   </si>
   <si>
-    <t>Value of the real-time prediction, monthly</t>
-  </si>
-  <si>
     <t>5% (lower bound) of the empirical prediction interval, monthly</t>
   </si>
   <si>
     <t>95% (upper bound) of the empirical prediction interval, monthly</t>
+  </si>
+  <si>
+    <t>Backcast</t>
   </si>
   <si>
     <r>
@@ -86,8 +80,8 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Andrea Viselli</t>
     </r>
@@ -98,8 +92,8 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Legend</t>
     </r>
@@ -107,19 +101,60 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> (see the 'Nowcast' sheet)</t>
     </r>
+  </si>
+  <si>
+    <t>Preliminary</t>
+  </si>
+  <si>
+    <t>Preliminary Realization of GDP growth, quarterly</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Real-time prediction for GDP growth, monthly</t>
+  </si>
+  <si>
+    <t>Updated prediction for previous month GDP growth, monthly</t>
+  </si>
+  <si>
+    <t>Reference quarter for the nowcast, if relative to a quarter</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Reference month for the nowcast</t>
+  </si>
+  <si>
+    <t>Date of the real-time prediction and data used to produce it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,47 +163,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +244,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,65 +331,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,83 +738,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D93CB-F2CC-4846-9043-D3CBF77BCCEB}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="53" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="9">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="26"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="12">
-        <v>45648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-    </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -750,66 +859,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB345B88-5858-7445-BD80-F1D8778C0EB0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="15.83203125" style="18" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="23" customWidth="1"/>
+    <col min="5" max="10" width="15.83203125" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>45623</v>
       </c>
-      <c r="B2" s="5">
-        <v>2.16166733365699E-3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>-9.6306980519894397E-4</v>
-      </c>
-      <c r="D2" s="5">
-        <v>6.3835333911170002E-3</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="24">
+        <v>10</v>
+      </c>
+      <c r="D2" s="24">
+        <v>2024</v>
+      </c>
+      <c r="E2" s="21">
+        <v>2.0774979510870002E-3</v>
+      </c>
+      <c r="F2" s="21">
+        <v>2.18859437226E-3</v>
+      </c>
+      <c r="G2" s="21">
+        <v>-7.5776100149673397E-4</v>
+      </c>
+      <c r="H2" s="21">
+        <v>6.3731985397719997E-3</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45648</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="24">
+        <v>11</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2024</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1.58897260909078E-4</v>
+      </c>
+      <c r="F3" s="21">
+        <v>3.2616874401746E-4</v>
+      </c>
+      <c r="G3" s="21">
+        <v>-2.5979068330139999E-3</v>
+      </c>
+      <c r="H3" s="21">
+        <v>4.537530056263E-3</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>45674</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="24">
+        <v>12</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2024</v>
+      </c>
+      <c r="E4" s="22">
+        <v>7.1822143680192005E-4</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1.33138092781256E-4</v>
+      </c>
+      <c r="G4" s="22">
+        <v>-2.7998081995269999E-3</v>
+      </c>
+      <c r="H4" s="22">
+        <v>4.3451720593169997E-3</v>
+      </c>
+      <c r="I4" s="22">
+        <v>-1.5100000000000001E-2</v>
+      </c>
+      <c r="J4" s="22">
+        <v>1.33E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>45717</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E5" s="22">
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="F5" s="22">
+        <v>-1.3498623600948599E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>-1.67080259537454E-2</v>
+      </c>
+      <c r="H5" s="22">
+        <v>-9.3160171174270206E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>45760</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="23">
+        <v>3</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E6" s="22">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F6" s="22">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G6" s="22">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="H6" s="22">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I6" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="22">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>45787</v>
+      </c>
+      <c r="C7" s="23">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>45822</v>
+      </c>
+      <c r="C8" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>45648</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3.3358012138698498E-4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>-2.7623943689153601E-3</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4.6565666829500602E-3</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
+      <c r="D8" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E8" s="22">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G8" s="22">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="H8" s="22">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>45860</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="23">
+        <v>6</v>
+      </c>
+      <c r="D9" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="G9" s="22">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="H9" s="22">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/ITNOW/ITNOW_History.xlsx
+++ b/public/ITNOW/ITNOW_History.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/MATLAB/IT-NOWCAST/DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/GitHub/andreaviselli.github.io/public/ITNOW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20C49BC-0E04-1F40-9100-92E8B8126C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4CB093-D499-F746-98C6-C9744FF6F416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="10100" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
-    <sheet name="NOWCAST" sheetId="1" r:id="rId2"/>
+    <sheet name="DATA" sheetId="3" r:id="rId2"/>
+    <sheet name="NOWCAST" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,20 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
-  <si>
-    <t>Nowcast</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>5Perc</t>
-  </si>
-  <si>
-    <t>95Perc</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -58,18 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">Update: </t>
-  </si>
-  <si>
-    <t>Realization of GDP growth, quarterly</t>
-  </si>
-  <si>
-    <t>5% (lower bound) of the empirical prediction interval, monthly</t>
-  </si>
-  <si>
-    <t>95% (upper bound) of the empirical prediction interval, monthly</t>
-  </si>
-  <si>
-    <t>Backcast</t>
   </si>
   <si>
     <r>
@@ -87,10 +67,284 @@
     </r>
   </si>
   <si>
+    <t>Preliminary</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Date of the real-time prediction and data used to produce it</t>
+  </si>
+  <si>
+    <t>Acronym</t>
+  </si>
+  <si>
+    <t>Short description</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Months, Weeks </t>
+    </r>
     <r>
       <rPr>
         <b/>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Months </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>INDPROD</t>
+  </si>
+  <si>
+    <t>Industrial production Index</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>EUROSTAT</t>
+  </si>
+  <si>
+    <t>CONSTRPROD</t>
+  </si>
+  <si>
+    <t>Index of production in construction</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>INDTURN</t>
+  </si>
+  <si>
+    <t>Turnover in industry</t>
+  </si>
+  <si>
+    <t>4, 0</t>
+  </si>
+  <si>
+    <t>ISTAT</t>
+  </si>
+  <si>
+    <t>INDPRODPRC</t>
+  </si>
+  <si>
+    <t>Producer prices in industry</t>
+  </si>
+  <si>
+    <t>0, 4</t>
+  </si>
+  <si>
+    <t>INDIMPPRC</t>
+  </si>
+  <si>
+    <t>Import prices in industry</t>
+  </si>
+  <si>
+    <t>CONSTRCOST</t>
+  </si>
+  <si>
+    <t>Construction cost index for residential buildings</t>
+  </si>
+  <si>
+    <t>HICPALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All-items harmonized index of consumer prices </t>
+  </si>
+  <si>
+    <t>0, 3</t>
+  </si>
+  <si>
+    <t>EER41EUR</t>
+  </si>
+  <si>
+    <t>Nominal effective exchange rate - 41/Euro</t>
+  </si>
+  <si>
+    <t>0, 0</t>
+  </si>
+  <si>
+    <t>ECB</t>
+  </si>
+  <si>
+    <t>FTSEMIB</t>
+  </si>
+  <si>
+    <t>FTSE MIB index</t>
+  </si>
+  <si>
+    <t>STOOQ</t>
+  </si>
+  <si>
+    <t>TOURNIGHT</t>
+  </si>
+  <si>
+    <t>Nights spent at tourist accommodation establishments</t>
+  </si>
+  <si>
+    <t>NEWPCAREG</t>
+  </si>
+  <si>
+    <t>New passenger car registration (EA20)</t>
+  </si>
+  <si>
+    <t>UNEMPLNUM</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>TRADEBAL</t>
+  </si>
+  <si>
+    <t>Balance of trade</t>
+  </si>
+  <si>
+    <t>RETLTRADE</t>
+  </si>
+  <si>
+    <t>Retail trade sales</t>
+  </si>
+  <si>
+    <t>1, 1</t>
+  </si>
+  <si>
+    <t>ITESI</t>
+  </si>
+  <si>
+    <t>Economic sentiment indicator</t>
+  </si>
+  <si>
+    <t>ITCCI</t>
+  </si>
+  <si>
+    <t>Composite consumer confidence index</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>ITCBC</t>
+  </si>
+  <si>
+    <t>Composite business confidence index</t>
+  </si>
+  <si>
+    <t>EUROCOIN</t>
+  </si>
+  <si>
+    <t>Cyclical index of the Euro-Area economy</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>ITACOIN</t>
+  </si>
+  <si>
+    <t>Cyclical index of the Italian economy</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Nominal gross domestic product</t>
+  </si>
+  <si>
+    <t>1, 0</t>
+  </si>
+  <si>
+    <t>(1) All series — except ITESI, ITCCI, ITCBC — are subject to revisions due to seasonal adjustment.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(2) Exact publication delay relative to the reference month, formatted as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>month(s), week(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>(3) Approximation of publication delay relative to the reference month. In general, if the release occurs at the beginning of a month (e.g., during the first week), this is considered as belonging to the previous month; otherwise, it is considered as available in the following month.</t>
+  </si>
+  <si>
+    <t>Reference month of the nowcast</t>
+  </si>
+  <si>
+    <t>5% (lower bound) of the empirical prediction interval</t>
+  </si>
+  <si>
+    <t>95% (upper bound) of the empirical prediction interval</t>
+  </si>
+  <si>
+    <t>Updated prediction for previous quarter GDP growth</t>
+  </si>
+  <si>
+    <t>Real-time prediction of GDP growth</t>
+  </si>
+  <si>
+    <t>Preliminary realisation of GDP growth</t>
+  </si>
+  <si>
+    <t>Revised realisation of GDP growth</t>
+  </si>
+  <si>
+    <t>Reference quarter of the nowcast (only for end-of-quarter nowcasts)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -99,7 +353,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -108,53 +362,46 @@
     </r>
   </si>
   <si>
-    <t>Preliminary</t>
-  </si>
-  <si>
-    <t>Preliminary Realization of GDP growth, quarterly</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>Real-time prediction for GDP growth, monthly</t>
-  </si>
-  <si>
-    <t>Updated prediction for previous month GDP growth, monthly</t>
-  </si>
-  <si>
-    <t>Reference quarter for the nowcast, if relative to a quarter</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Reference month for the nowcast</t>
-  </si>
-  <si>
-    <t>Date of the real-time prediction and data used to produce it</t>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Data information including the series acronym, exact and approximate publication delay expressed in months and weeks, 
+and months, respectively, and source used to generate nowcasts.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Backcast (QoQ)</t>
+  </si>
+  <si>
+    <t>Nowcast (QoQ)</t>
+  </si>
+  <si>
+    <t>5Perc (QoQ)</t>
+  </si>
+  <si>
+    <t>95Perc (QoQ)</t>
+  </si>
+  <si>
+    <t>Nowcast (YoY)</t>
+  </si>
+  <si>
+    <t>QoQ Nowcasts represent quarterly growth rates, calculated over the 
+three-month period ending in the month of release.</t>
+  </si>
+  <si>
+    <t>Year-over-year real-time prediction of GDP growth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,19 +424,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -215,8 +449,43 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +528,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -330,34 +617,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -365,43 +717,138 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -738,115 +1185,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D93CB-F2CC-4846-9043-D3CBF77BCCEB}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="53" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="20.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="48"/>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9">
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="26"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="B13" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>7</v>
+      <c r="B14" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -858,258 +1321,603 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084CC5D5-845F-064B-BC83-40358A6E817A}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" style="16" customWidth="1"/>
+    <col min="3" max="4" width="20.83203125" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="23">
+        <v>2</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="23">
+        <v>2</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="28">
+        <v>1</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+    </row>
+    <row r="25" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB345B88-5858-7445-BD80-F1D8778C0EB0}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="18" customWidth="1"/>
-    <col min="2" max="3" width="15.83203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="23" customWidth="1"/>
-    <col min="5" max="10" width="15.83203125" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="15.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="15" customWidth="1"/>
+    <col min="5" max="11" width="15.83203125" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>45623</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="24">
-        <v>10</v>
-      </c>
-      <c r="D2" s="24">
-        <v>2024</v>
-      </c>
-      <c r="E2" s="21">
-        <v>2.0774979510870002E-3</v>
-      </c>
-      <c r="F2" s="21">
-        <v>2.18859437226E-3</v>
-      </c>
-      <c r="G2" s="21">
-        <v>-7.5776100149673397E-4</v>
-      </c>
-      <c r="H2" s="21">
-        <v>6.3731985397719997E-3</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>45648</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="24">
-        <v>11</v>
-      </c>
-      <c r="D3" s="24">
-        <v>2024</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1.58897260909078E-4</v>
-      </c>
-      <c r="F3" s="21">
-        <v>3.2616874401746E-4</v>
-      </c>
-      <c r="G3" s="21">
-        <v>-2.5979068330139999E-3</v>
-      </c>
-      <c r="H3" s="21">
-        <v>4.537530056263E-3</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>45674</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="24">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>46039</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="41">
         <v>12</v>
       </c>
-      <c r="D4" s="24">
-        <v>2024</v>
-      </c>
-      <c r="E4" s="22">
-        <v>7.1822143680192005E-4</v>
-      </c>
-      <c r="F4" s="22">
-        <v>1.33138092781256E-4</v>
-      </c>
-      <c r="G4" s="22">
-        <v>-2.7998081995269999E-3</v>
-      </c>
-      <c r="H4" s="22">
-        <v>4.3451720593169997E-3</v>
-      </c>
-      <c r="I4" s="22">
-        <v>-1.5100000000000001E-2</v>
-      </c>
-      <c r="J4" s="22">
-        <v>1.33E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>45717</v>
-      </c>
-      <c r="C5" s="23">
-        <v>2</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="D2" s="15">
         <v>2025</v>
       </c>
-      <c r="E5" s="22">
-        <v>-7.7999999999999996E-3</v>
-      </c>
-      <c r="F5" s="22">
-        <v>-1.3498623600948599E-2</v>
-      </c>
-      <c r="G5" s="22">
-        <v>-1.67080259537454E-2</v>
-      </c>
-      <c r="H5" s="22">
-        <v>-9.3160171174270206E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>45760</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="23">
-        <v>3</v>
-      </c>
-      <c r="D6" s="23">
-        <v>2025</v>
-      </c>
-      <c r="E6" s="22">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="F6" s="22">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="G6" s="22">
-        <v>-2.5999999999999999E-3</v>
-      </c>
-      <c r="H6" s="22">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="I6" s="22">
+      <c r="E2" s="14">
+        <v>2.3E-3</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G2" s="14">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="H2" s="14">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="I2" s="14">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="J2" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="22">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>45787</v>
-      </c>
-      <c r="C7" s="23">
-        <v>4</v>
-      </c>
-      <c r="D7" s="23">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>45822</v>
-      </c>
-      <c r="C8" s="23">
-        <v>5</v>
-      </c>
-      <c r="D8" s="23">
-        <v>2025</v>
-      </c>
-      <c r="E8" s="22">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="F8" s="22">
-        <v>1.4E-3</v>
-      </c>
-      <c r="G8" s="22">
-        <v>-1.6000000000000001E-3</v>
-      </c>
-      <c r="H8" s="22">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>45860</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="23">
-        <v>6</v>
-      </c>
-      <c r="D9" s="23">
-        <v>2025</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F9" s="22">
-        <v>2E-3</v>
-      </c>
-      <c r="G9" s="22">
-        <v>-1.1000000000000001E-3</v>
-      </c>
-      <c r="H9" s="22">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>19</v>
-      </c>
+      <c r="K2" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>46059</v>
+      </c>
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2026</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G3" s="14">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="41"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="41"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="41"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="41"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="41"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="41"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="41"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="41"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
